--- a/medicine/Pharmacie/Préparateur_en_pharmacie/Préparateur_en_pharmacie.xlsx
+++ b/medicine/Pharmacie/Préparateur_en_pharmacie/Préparateur_en_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9parateur_en_pharmacie</t>
+          <t>Préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le préparateur en pharmacie (ou préparateur technicien en pharmacie selon l'intitulé du diplôme), seconde le pharmacien dans les tâches de dispensation et de préparation des médicaments ainsi que dans les tâches administratives.
 Seuls les pharmaciens et les préparateurs en pharmacie sont habilités à délivrer les médicaments humains et vétérinaires.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9parateur_en_pharmacie</t>
+          <t>Préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DEUST préparateur technicien en pharmacie se prépare en alternance. Le contrat d’alternance (apprentissage ou professionnalisation) est un contrat à temps plein de 35h d’une durée de 24 mois.
 Il s’organise en 16h de cours par semaine et 19h de travail en entreprise, son organisation est au choix de l’employeur.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%A9parateur_en_pharmacie</t>
+          <t>Préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,16 +564,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">À l'officine
-Le préparateur en pharmacie d'officine vérifie les ordonnances et délivre tous types de médicaments (y compris les stupéfiants)[1],[2] dispositifs médicaux et orthopédiques sous la responsabilité et le contrôle effectif d’un pharmacien. Il réalise les préparations magistrales et officinales de manière extemporané au préparatoire en respectant les « bonnes pratiques de préparation ». Il assure également la réception et le rangement des commandes, la gestion de la réserve et du réassort. En accord avec le titulaire, il peut même s'occuper d'un secteur précis et passer des commandes auprès des grossistes répartiteurs et des laboratoires.
+          <t>À l'officine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le préparateur en pharmacie d'officine vérifie les ordonnances et délivre tous types de médicaments (y compris les stupéfiants), dispositifs médicaux et orthopédiques sous la responsabilité et le contrôle effectif d’un pharmacien. Il réalise les préparations magistrales et officinales de manière extemporané au préparatoire en respectant les « bonnes pratiques de préparation ». Il assure également la réception et le rangement des commandes, la gestion de la réserve et du réassort. En accord avec le titulaire, il peut même s'occuper d'un secteur précis et passer des commandes auprès des grossistes répartiteurs et des laboratoires.
 Le préparateur peut administrer les vaccins contre la Covid-19 et la grippe, sous la supervision d'un pharmacien lui-même habilité à vacciner, à condition qu'il ait suivi une formation spécifique, dispensée et attestée par un professionnel de santé formé à l'administration des vaccins. Le vaccin contre la Covid-19 peut être administré par le préparateur aux personnes à partir de l'âge de 12 ans et le vaccin antigrippal aux personnes majeures uniquement. Le préparateur en pharmacie n’est pas habilité à prescrire ces vaccins. 
 Le préparateur en pharmacie n’est actuellement ni autorisé à prescrire ni à administrer les autres vaccins du calendrier vaccinal à l'officine. La loi Rist, votée le 19 mai 2023, prévoit toutefois la possibilité pour le préparateur d'administrer des vaccins. Un texte d'application est en attente de parution pour préciser les conditions de cette pratique.
 [réf. souhaitée]
-À l'hôpital
-Le préparateur en pharmacie hospitalière dispense des médicaments et des dispositifs médicaux stériles à un service et également aux patients ambulatoires ayant des traitements à dispensation hospitalière de type anti rétroviraux ou certains anti cancéreux ainsi que certains médicaments sous autorisation temporaire d'utilisation (ATU[3]) ou certains autres traitements sous protocoles d'essais cliniques . Il effectue des préparations magistrales, hospitalières, radio-pharmaceutiques et de chimiothérapie (reconstitution de cytotoxiques) sous contrôle d'un pharmacien.Il effectue aussi des opérations de stérilisation, participe à la gestion du stock de la PUI (pharmacie à usage interne) : achats, stockage, inventaire, contrôle…
-Le préparateur en pharmacie est à la fois un scientifique avec des connaissances en biologie, biochimie, botanique et un technicien qui connaît la pharmacologie et la législation pharmaceutique. 
-En centre de vaccination
-Le préparateur est autorisé à pratiquer la vaccination contre la COVID-19 (a condition d’avoir suivi une formation spécifique), sous la responsabilité d’un médecin[4].
 </t>
         </is>
       </c>
@@ -570,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pr%C3%A9parateur_en_pharmacie</t>
+          <t>Préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +599,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>À l'hôpital</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le préparateur en pharmacie hospitalière dispense des médicaments et des dispositifs médicaux stériles à un service et également aux patients ambulatoires ayant des traitements à dispensation hospitalière de type anti rétroviraux ou certains anti cancéreux ainsi que certains médicaments sous autorisation temporaire d'utilisation (ATU) ou certains autres traitements sous protocoles d'essais cliniques . Il effectue des préparations magistrales, hospitalières, radio-pharmaceutiques et de chimiothérapie (reconstitution de cytotoxiques) sous contrôle d'un pharmacien.Il effectue aussi des opérations de stérilisation, participe à la gestion du stock de la PUI (pharmacie à usage interne) : achats, stockage, inventaire, contrôle…
+Le préparateur en pharmacie est à la fois un scientifique avec des connaissances en biologie, biochimie, botanique et un technicien qui connaît la pharmacologie et la législation pharmaceutique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Préparateur_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pr%C3%A9parateur_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En centre de vaccination</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le préparateur est autorisé à pratiquer la vaccination contre la COVID-19 (a condition d’avoir suivi une formation spécifique), sous la responsabilité d’un médecin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Préparateur_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pr%C3%A9parateur_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Matériel utilisé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le préparateur en pharmacie utilise toutes sortes de matériels pour fabriquer ses préparations magistrales et officinales (même si aujourd'hui, cela représente qu'une petite partie de l'activité de préparateur).
 Le mortier et le pilon (utilisés depuis l'antiquité par les apothicaires) pour piler, triturer, concasser les différents produits galéniques (poudres, semi-solides, plantes), il est aussi le principal symbole des préparateurs à travers le monde.
@@ -598,64 +689,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pr%C3%A9parateur_en_pharmacie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Préparateur_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pr%C3%A9parateur_en_pharmacie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Temps de travail et salaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En officine, ses horaires sont réguliers et correspondent aux horaires d'un commerce, de 8 heures 30 à 20 heures. Il peut néanmoins effectuer des gardes le soir, la nuit, le dimanche et les jours fériés. 
 À l'hôpital, ses horaires sont ceux de la fonction publique, en général de 9 heures à 17 heures, il peut tout comme en officine effectuer des gardes.
-Le salaire d'un préparateur en pharmacie est très variable en fonction des officines et du secteur d'activité, mais il va, environ, de 1250 euros net (240 étant le coefficient de base sur la grille des salaires des préparateurs) en début de carrière jusqu'à 2500 euros net par mois en fin de carrière[5] (selon l'ancienneté, les formations effectuée, etc.. Il existe une grille salariale de référence[6], appliquée dans toutes les pharmacies excepté dans les très grandes villes (Paris, Lyon).
+Le salaire d'un préparateur en pharmacie est très variable en fonction des officines et du secteur d'activité, mais il va, environ, de 1250 euros net (240 étant le coefficient de base sur la grille des salaires des préparateurs) en début de carrière jusqu'à 2500 euros net par mois en fin de carrière (selon l'ancienneté, les formations effectuée, etc.. Il existe une grille salariale de référence, appliquée dans toutes les pharmacies excepté dans les très grandes villes (Paris, Lyon).
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pr%C3%A9parateur_en_pharmacie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Préparateur_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pr%C3%A9parateur_en_pharmacie</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Quelques chiffres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">85 % des préparateurs en pharmacie sont des femmes.
 L'emploi des préparateurs se trouve surtout en pharmacie d'officine, seuls environ 7 % des préparateurs travaillent en pharmacie hospitalière et moins de 3 % en industrie pharmaceutique, contre environ 90 % en pharmacie d'officine.
@@ -663,31 +758,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pr%C3%A9parateur_en_pharmacie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Préparateur_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pr%C3%A9parateur_en_pharmacie</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Évolution professionnelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le préparateur en pharmacie peut faire partie d'une équipe d'opérateurs techniques dans l'industrie pharmaceutique.
 Il peut choisir de travailler dans un hôpital et intégrer la fonction publique hospitalière, puis, après 4 ans d'expérience professionnelle, passer le concours pour devenir cadre de santé (IFCS), ou intégrer un hôpital militaire et travailler sous statut MITHA.
